--- a/demango.xlsx
+++ b/demango.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilly\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EF5FFBE-2B35-4B01-8176-637F9D4F7A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02328DCA-5964-4799-947A-0A6DB5F3B5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{07DEB80B-2673-493F-9642-74267BD26D08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{07DEB80B-2673-493F-9642-74267BD26D08}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="text_box" sheetId="2" r:id="rId1"/>
+    <sheet name="check_box" sheetId="3" r:id="rId2"/>
+    <sheet name="radio_box" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -443,16 +441,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -603,30 +595,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -669,26 +661,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BD76CA-29BE-4BA6-8E12-203DF5BEC83E}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="120" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1339,34 +1331,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8F525D-070B-4E51-A078-187EA1CD4162}">
-  <dimension ref="A6:A7"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="64.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E69EEE9-3391-4DDB-9D67-D3F85807BB3A}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1550,12 +1518,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3BA2A4-68C7-4216-AB56-52D1B0C974C1}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1767,16 +1735,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E642D19-5304-417B-BD63-5201341A43B7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>